--- a/misc/organization-import.xlsx
+++ b/misc/organization-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurels/Dev/sitcom/sitcom/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3D42EC-C769-E740-BFBE-F86911837BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D971C1-7C4F-B74E-8DBE-59E44EB7EA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{1ADB2050-60DE-0641-99AE-CFDBA83663B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{822D6E32-AD11-944A-A693-68C882CD12AF}" name="organization-import" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/aurels/Dev/sitcom/sitcom/misc/organization-import.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/aurels/Dev/sitcom/sitcom/misc/organization-import.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField type="text"/>
         <textField/>
@@ -60,9 +60,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Site web (URL)</t>
-  </si>
-  <si>
     <t>80LIMIT</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Développement</t>
+  </si>
+  <si>
+    <t>Site web</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,35 +466,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
